--- a/Code/Results/Cases/Case_8_18/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_8_18/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.78749001710242</v>
+        <v>13.37149390809156</v>
       </c>
       <c r="C2">
-        <v>6.62935566468932</v>
+        <v>6.963044944247396</v>
       </c>
       <c r="D2">
-        <v>5.439117889495973</v>
+        <v>5.669524990700032</v>
       </c>
       <c r="E2">
-        <v>7.693085965668314</v>
+        <v>7.840891452812776</v>
       </c>
       <c r="F2">
-        <v>24.21060005586277</v>
+        <v>23.01176395876554</v>
       </c>
       <c r="G2">
-        <v>2.1214073639913</v>
+        <v>6.684406073569776</v>
       </c>
       <c r="H2">
-        <v>3.057124947059191</v>
+        <v>2.741444680013116</v>
       </c>
       <c r="I2">
-        <v>3.704449648330161</v>
+        <v>3.364257810309157</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>17.3691300418176</v>
+        <v>16.31471922925561</v>
       </c>
       <c r="L2">
-        <v>5.833756061385048</v>
+        <v>13.14092030316841</v>
       </c>
       <c r="M2">
-        <v>10.85889278604301</v>
+        <v>10.98774737641427</v>
       </c>
       <c r="N2">
-        <v>6.946058462187523</v>
+        <v>5.84552080817762</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>11.00987736606892</v>
       </c>
       <c r="P2">
-        <v>13.61288692137834</v>
+        <v>7.163985855237078</v>
       </c>
       <c r="Q2">
-        <v>18.09958515276413</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>13.2373455313585</v>
+      </c>
+      <c r="S2">
+        <v>17.02585103372635</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.96305307058504</v>
+        <v>12.56849251135725</v>
       </c>
       <c r="C3">
-        <v>6.38112595694438</v>
+        <v>6.670859577534317</v>
       </c>
       <c r="D3">
-        <v>5.235672974764706</v>
+        <v>5.478319382192987</v>
       </c>
       <c r="E3">
-        <v>7.534071039852116</v>
+        <v>7.708820380022745</v>
       </c>
       <c r="F3">
-        <v>23.96538185680121</v>
+        <v>22.76694774155443</v>
       </c>
       <c r="G3">
-        <v>2.124776201656152</v>
+        <v>7.130512208651993</v>
       </c>
       <c r="H3">
-        <v>3.244341550328928</v>
+        <v>2.907528688336164</v>
       </c>
       <c r="I3">
-        <v>3.846521383183682</v>
+        <v>3.482766683143068</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>17.38973698066691</v>
+        <v>16.33999291590923</v>
       </c>
       <c r="L3">
-        <v>5.791664904086185</v>
+        <v>13.24923416693782</v>
       </c>
       <c r="M3">
-        <v>10.1894444941352</v>
+        <v>10.94963181200579</v>
       </c>
       <c r="N3">
-        <v>6.755210857872787</v>
+        <v>5.812199604982613</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>10.35934081575585</v>
       </c>
       <c r="P3">
-        <v>13.74674033657689</v>
+        <v>6.969179751252291</v>
       </c>
       <c r="Q3">
-        <v>18.05277622330146</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>13.35282731562302</v>
+      </c>
+      <c r="S3">
+        <v>16.96854782610698</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.42807189730627</v>
+        <v>12.04553996420892</v>
       </c>
       <c r="C4">
-        <v>6.224621120318049</v>
+        <v>6.487099467432926</v>
       </c>
       <c r="D4">
-        <v>5.107609236173201</v>
+        <v>5.358842417591048</v>
       </c>
       <c r="E4">
-        <v>7.434023269446794</v>
+        <v>7.62602403173981</v>
       </c>
       <c r="F4">
-        <v>23.82037234366071</v>
+        <v>22.61951273134468</v>
       </c>
       <c r="G4">
-        <v>2.12691952537562</v>
+        <v>7.414465709980411</v>
       </c>
       <c r="H4">
-        <v>3.363746572958621</v>
+        <v>3.013532273199162</v>
       </c>
       <c r="I4">
-        <v>3.937800083431294</v>
+        <v>3.559294045550798</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>17.40582880371176</v>
+        <v>16.35730106689351</v>
       </c>
       <c r="L4">
-        <v>5.764832273440879</v>
+        <v>13.31633885089087</v>
       </c>
       <c r="M4">
-        <v>9.754450630586236</v>
+        <v>10.94179810744328</v>
       </c>
       <c r="N4">
-        <v>6.636102013056807</v>
+        <v>5.790876284258297</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>9.937252074946073</v>
       </c>
       <c r="P4">
-        <v>13.83053992096253</v>
+        <v>6.847927629683261</v>
       </c>
       <c r="Q4">
-        <v>18.02918787671281</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>13.42530860131721</v>
+      </c>
+      <c r="S4">
+        <v>16.936334238405</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.19815922890818</v>
+        <v>11.82011039759788</v>
       </c>
       <c r="C5">
-        <v>6.16418752900563</v>
+        <v>6.415953418182547</v>
       </c>
       <c r="D5">
-        <v>5.055359244102978</v>
+        <v>5.310363930193278</v>
       </c>
       <c r="E5">
-        <v>7.391750930925545</v>
+        <v>7.591005614600629</v>
       </c>
       <c r="F5">
-        <v>23.75676343610968</v>
+        <v>22.55407155842682</v>
       </c>
       <c r="G5">
-        <v>2.12781794439808</v>
+        <v>7.53355122325796</v>
       </c>
       <c r="H5">
-        <v>3.413844397810796</v>
+        <v>3.058034246638643</v>
       </c>
       <c r="I5">
-        <v>3.978489571558339</v>
+        <v>3.594385657368082</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>17.40889740434664</v>
+        <v>16.36042442770588</v>
       </c>
       <c r="L5">
-        <v>5.753170596508652</v>
+        <v>13.33964913305101</v>
       </c>
       <c r="M5">
-        <v>9.570763444102944</v>
+        <v>10.94013249528033</v>
       </c>
       <c r="N5">
-        <v>6.588315507951537</v>
+        <v>5.781518219972085</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>9.759194055341485</v>
       </c>
       <c r="P5">
-        <v>13.86470954080502</v>
+        <v>6.799341498926673</v>
       </c>
       <c r="Q5">
-        <v>18.01669078368417</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>13.4549267427402</v>
+      </c>
+      <c r="S5">
+        <v>16.91963790001867</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.15372114054205</v>
+        <v>11.77629067120216</v>
       </c>
       <c r="C6">
-        <v>6.159427037563777</v>
+        <v>6.409932005144996</v>
       </c>
       <c r="D6">
-        <v>5.047450074044904</v>
+        <v>5.303096932022027</v>
       </c>
       <c r="E6">
-        <v>7.383567809987615</v>
+        <v>7.58410044740868</v>
       </c>
       <c r="F6">
-        <v>23.73902592878467</v>
+        <v>22.53577492328785</v>
       </c>
       <c r="G6">
-        <v>2.127975525779393</v>
+        <v>7.554477743418999</v>
       </c>
       <c r="H6">
-        <v>3.422606219109445</v>
+        <v>3.065829508801241</v>
       </c>
       <c r="I6">
-        <v>3.98846438546093</v>
+        <v>3.604070301310334</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>17.40415515924241</v>
+        <v>16.35562965586269</v>
       </c>
       <c r="L6">
-        <v>5.750635286898391</v>
+        <v>13.33841874168526</v>
       </c>
       <c r="M6">
-        <v>9.539386433298009</v>
+        <v>10.93714736504577</v>
       </c>
       <c r="N6">
-        <v>6.581806842960902</v>
+        <v>5.77940085898814</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>9.728797402527146</v>
       </c>
       <c r="P6">
-        <v>13.86993186724478</v>
+        <v>6.792699130431689</v>
       </c>
       <c r="Q6">
-        <v>18.00960682517439</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>13.45948449143012</v>
+      </c>
+      <c r="S6">
+        <v>16.91164768964258</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.40941086145444</v>
+        <v>12.01666245566562</v>
       </c>
       <c r="C7">
-        <v>6.238218215596192</v>
+        <v>6.487142555438337</v>
       </c>
       <c r="D7">
-        <v>5.109086683698847</v>
+        <v>5.37109136232896</v>
       </c>
       <c r="E7">
-        <v>7.430400571004404</v>
+        <v>7.626262907742644</v>
       </c>
       <c r="F7">
-        <v>23.79976645319207</v>
+        <v>22.56215657630048</v>
       </c>
       <c r="G7">
-        <v>2.126951006172434</v>
+        <v>7.465776075195602</v>
       </c>
       <c r="H7">
-        <v>3.365421831700555</v>
+        <v>3.016399478682542</v>
       </c>
       <c r="I7">
-        <v>3.94668892590557</v>
+        <v>3.571043281665467</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>17.39141077071539</v>
+        <v>16.3249493702365</v>
       </c>
       <c r="L7">
-        <v>5.763097174229999</v>
+        <v>13.28647811291708</v>
       </c>
       <c r="M7">
-        <v>9.750623630069589</v>
+        <v>10.92294450479134</v>
       </c>
       <c r="N7">
-        <v>6.639386680673545</v>
+        <v>5.788633542651443</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>9.919950555887164</v>
       </c>
       <c r="P7">
-        <v>13.82974767859731</v>
+        <v>6.849596061212158</v>
       </c>
       <c r="Q7">
-        <v>18.0151639490101</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>13.42326859859111</v>
+      </c>
+      <c r="S7">
+        <v>16.89418634761201</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.49007994320191</v>
+        <v>13.05056013618814</v>
       </c>
       <c r="C8">
-        <v>6.56301484413436</v>
+        <v>6.835938987736689</v>
       </c>
       <c r="D8">
-        <v>5.372415934822564</v>
+        <v>5.641121861873049</v>
       </c>
       <c r="E8">
-        <v>7.63486980217682</v>
+        <v>7.803870184137299</v>
       </c>
       <c r="F8">
-        <v>24.09922979386522</v>
+        <v>22.78298580783671</v>
       </c>
       <c r="G8">
-        <v>2.122577836062998</v>
+        <v>7.069339515634045</v>
       </c>
       <c r="H8">
-        <v>3.122011177838711</v>
+        <v>2.80323340635754</v>
       </c>
       <c r="I8">
-        <v>3.763172359760651</v>
+        <v>3.420960680198458</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>17.35651763432915</v>
+        <v>16.24596703122636</v>
       </c>
       <c r="L8">
-        <v>5.817426376788206</v>
+        <v>13.11135491497168</v>
       </c>
       <c r="M8">
-        <v>10.63135419911095</v>
+        <v>10.920731357103</v>
       </c>
       <c r="N8">
-        <v>6.885721782121718</v>
+        <v>5.830358974610815</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>10.74652099234969</v>
       </c>
       <c r="P8">
-        <v>13.6572758959399</v>
+        <v>7.097126471391188</v>
       </c>
       <c r="Q8">
-        <v>18.06422090048654</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>13.27225222848681</v>
+      </c>
+      <c r="S8">
+        <v>16.89671559163214</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.40282146644735</v>
+        <v>14.90131211782075</v>
       </c>
       <c r="C9">
-        <v>7.142101563765492</v>
+        <v>7.510393630975236</v>
       </c>
       <c r="D9">
-        <v>5.857546655257839</v>
+        <v>6.107870571383113</v>
       </c>
       <c r="E9">
-        <v>8.020757797113911</v>
+        <v>8.129293342589667</v>
       </c>
       <c r="F9">
-        <v>24.76397950481757</v>
+        <v>23.40542980264298</v>
       </c>
       <c r="G9">
-        <v>2.114552494272548</v>
+        <v>6.079317841242595</v>
       </c>
       <c r="H9">
-        <v>2.677778673720096</v>
+        <v>2.41035068137709</v>
       </c>
       <c r="I9">
-        <v>3.421394475366044</v>
+        <v>3.135409098861775</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>17.34175762749077</v>
+        <v>16.19596920849662</v>
       </c>
       <c r="L9">
-        <v>5.918868065892481</v>
+        <v>12.85457788621427</v>
       </c>
       <c r="M9">
-        <v>12.17026852024099</v>
+        <v>11.09382873671595</v>
       </c>
       <c r="N9">
-        <v>7.344677147896104</v>
+        <v>5.910167435565981</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>12.23839180771879</v>
       </c>
       <c r="P9">
-        <v>13.3333106006659</v>
+        <v>7.566286531140282</v>
       </c>
       <c r="Q9">
-        <v>18.22675763948662</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>12.99488227929784</v>
+      </c>
+      <c r="S9">
+        <v>17.05136669117316</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.61739300469245</v>
+        <v>16.0267449321037</v>
       </c>
       <c r="C10">
-        <v>7.570537232694018</v>
+        <v>7.928268013594438</v>
       </c>
       <c r="D10">
-        <v>6.156508108263777</v>
+        <v>6.451568581873175</v>
       </c>
       <c r="E10">
-        <v>8.205702503667819</v>
+        <v>8.296792006299803</v>
       </c>
       <c r="F10">
-        <v>25.154977535211</v>
+        <v>23.5652688435971</v>
       </c>
       <c r="G10">
-        <v>2.109106206068201</v>
+        <v>6.376077009318085</v>
       </c>
       <c r="H10">
-        <v>2.398888123020318</v>
+        <v>2.173882356848901</v>
       </c>
       <c r="I10">
-        <v>3.199068091401482</v>
+        <v>2.959384393570897</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>17.28659941145629</v>
+        <v>16.01602026368793</v>
       </c>
       <c r="L10">
-        <v>5.965359359811344</v>
+        <v>12.55780584438961</v>
       </c>
       <c r="M10">
-        <v>13.16800872328664</v>
+        <v>11.16970280710112</v>
       </c>
       <c r="N10">
-        <v>7.59466471200213</v>
+        <v>5.940972213638707</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>13.14494466491985</v>
       </c>
       <c r="P10">
-        <v>13.10007108689699</v>
+        <v>7.815132616899145</v>
       </c>
       <c r="Q10">
-        <v>18.30268491202258</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>12.7981397963674</v>
+      </c>
+      <c r="S10">
+        <v>16.96376699868042</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.77324000700816</v>
+        <v>16.1021283166303</v>
       </c>
       <c r="C11">
-        <v>7.939857104449589</v>
+        <v>8.138770870948857</v>
       </c>
       <c r="D11">
-        <v>5.958829152337042</v>
+        <v>6.364193244609647</v>
       </c>
       <c r="E11">
-        <v>7.608306743609046</v>
+        <v>7.745312486971542</v>
       </c>
       <c r="F11">
-        <v>24.33240529101752</v>
+        <v>22.3737665314234</v>
       </c>
       <c r="G11">
-        <v>2.107559465904888</v>
+        <v>9.343688150389655</v>
       </c>
       <c r="H11">
-        <v>3.209789875609172</v>
+        <v>3.060803634158472</v>
       </c>
       <c r="I11">
-        <v>3.157609623789241</v>
+        <v>2.943833835154867</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>16.76671370484161</v>
+        <v>15.34978612632001</v>
       </c>
       <c r="L11">
-        <v>5.827296810318158</v>
+        <v>12.01623604377945</v>
       </c>
       <c r="M11">
-        <v>13.4566667296729</v>
+        <v>10.72939817889824</v>
       </c>
       <c r="N11">
-        <v>7.06826816369877</v>
+        <v>5.812934438735414</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>13.29521000466288</v>
       </c>
       <c r="P11">
-        <v>12.9897455704598</v>
+        <v>7.262562350175972</v>
       </c>
       <c r="Q11">
-        <v>17.76964837547212</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>12.74135030937684</v>
+      </c>
+      <c r="S11">
+        <v>16.15299802652773</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.67166543829039</v>
+        <v>15.97936734687962</v>
       </c>
       <c r="C12">
-        <v>8.15034300144983</v>
+        <v>8.255477053925272</v>
       </c>
       <c r="D12">
-        <v>5.723466317956152</v>
+        <v>6.177947871824884</v>
       </c>
       <c r="E12">
-        <v>7.137306751084275</v>
+        <v>7.295646618602301</v>
       </c>
       <c r="F12">
-        <v>23.57284794631358</v>
+        <v>21.48216772873177</v>
       </c>
       <c r="G12">
-        <v>2.107294457380505</v>
+        <v>11.00857194488197</v>
       </c>
       <c r="H12">
-        <v>4.463734823815397</v>
+        <v>4.359647192471833</v>
       </c>
       <c r="I12">
-        <v>3.15057423400421</v>
+        <v>2.942461967208144</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>16.36299245208298</v>
+        <v>14.92032247149301</v>
       </c>
       <c r="L12">
-        <v>5.75769342919298</v>
+        <v>11.70045784046508</v>
       </c>
       <c r="M12">
-        <v>13.49863683553373</v>
+        <v>10.4049419762148</v>
       </c>
       <c r="N12">
-        <v>6.579726461845516</v>
+        <v>5.756256585297186</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>13.27647205330792</v>
       </c>
       <c r="P12">
-        <v>12.95881790925724</v>
+        <v>6.757295178726793</v>
       </c>
       <c r="Q12">
-        <v>17.31806620537244</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>12.75360367575217</v>
+      </c>
+      <c r="S12">
+        <v>15.60611736997147</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.34427007024754</v>
+        <v>15.69435336663988</v>
       </c>
       <c r="C13">
-        <v>8.273902301808587</v>
+        <v>8.364526051573394</v>
       </c>
       <c r="D13">
-        <v>5.442858952813818</v>
+        <v>5.880567406251977</v>
       </c>
       <c r="E13">
-        <v>6.741579290526373</v>
+        <v>6.90324636338876</v>
       </c>
       <c r="F13">
-        <v>22.78196308024765</v>
+        <v>20.80323186220443</v>
       </c>
       <c r="G13">
-        <v>2.108029092337799</v>
+        <v>10.67182402289406</v>
       </c>
       <c r="H13">
-        <v>5.820588988048906</v>
+        <v>5.73653906283046</v>
       </c>
       <c r="I13">
-        <v>3.183417647603368</v>
+        <v>2.96755942654604</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>16.00337580616792</v>
+        <v>14.65085563584871</v>
       </c>
       <c r="L13">
-        <v>5.734233632978277</v>
+        <v>11.52279857418803</v>
       </c>
       <c r="M13">
-        <v>13.3533381146276</v>
+        <v>10.16620674632821</v>
       </c>
       <c r="N13">
-        <v>6.095125254942528</v>
+        <v>5.748313505544111</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>13.15121840898018</v>
       </c>
       <c r="P13">
-        <v>12.98318579840076</v>
+        <v>6.264765834872164</v>
       </c>
       <c r="Q13">
-        <v>16.8799628955695</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>12.79922000895831</v>
+      </c>
+      <c r="S13">
+        <v>15.2571462610808</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.00440870516212</v>
+        <v>15.41261287876462</v>
       </c>
       <c r="C14">
-        <v>8.326884276725821</v>
+        <v>8.443617990927104</v>
       </c>
       <c r="D14">
-        <v>5.22428531888395</v>
+        <v>5.62261469865708</v>
       </c>
       <c r="E14">
-        <v>6.518229805664909</v>
+        <v>6.679305246230337</v>
       </c>
       <c r="F14">
-        <v>22.21035954877669</v>
+        <v>20.40916583295841</v>
       </c>
       <c r="G14">
-        <v>2.108998269807498</v>
+        <v>9.575441366864466</v>
       </c>
       <c r="H14">
-        <v>6.799952482970277</v>
+        <v>6.723050261460546</v>
       </c>
       <c r="I14">
-        <v>3.227131929626458</v>
+        <v>3.000593189657874</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>15.77130489302691</v>
+        <v>14.52457756130086</v>
       </c>
       <c r="L14">
-        <v>5.745627881179187</v>
+        <v>11.44912465046812</v>
       </c>
       <c r="M14">
-        <v>13.16464170837577</v>
+        <v>10.03409690174227</v>
       </c>
       <c r="N14">
-        <v>5.764415948865163</v>
+        <v>5.770910838395756</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>13.01224894898527</v>
       </c>
       <c r="P14">
-        <v>13.02571002228269</v>
+        <v>5.931895575662052</v>
       </c>
       <c r="Q14">
-        <v>16.57773760491289</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>12.84220312750147</v>
+      </c>
+      <c r="S14">
+        <v>15.09040381983491</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.86750370984111</v>
+        <v>15.30203755425715</v>
       </c>
       <c r="C15">
-        <v>8.326289712602893</v>
+        <v>8.46562833771843</v>
       </c>
       <c r="D15">
-        <v>5.162078849811345</v>
+        <v>5.539350607297091</v>
       </c>
       <c r="E15">
-        <v>6.470418040590086</v>
+        <v>6.631583802025616</v>
       </c>
       <c r="F15">
-        <v>22.06001477284379</v>
+        <v>20.34325343563573</v>
       </c>
       <c r="G15">
-        <v>2.109464722227255</v>
+        <v>8.964909139194429</v>
       </c>
       <c r="H15">
-        <v>7.030268869037329</v>
+        <v>6.953450373318332</v>
       </c>
       <c r="I15">
-        <v>3.250721292415808</v>
+        <v>3.019660509517036</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>15.72009644806691</v>
+        <v>14.51681272146055</v>
       </c>
       <c r="L15">
-        <v>5.750684826661338</v>
+        <v>11.45009074389301</v>
       </c>
       <c r="M15">
-        <v>13.07740611788286</v>
+        <v>10.01388591451623</v>
       </c>
       <c r="N15">
-        <v>5.68423385524058</v>
+        <v>5.779173996068569</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>12.95262145032778</v>
       </c>
       <c r="P15">
-        <v>13.04625126314002</v>
+        <v>5.852618129071841</v>
       </c>
       <c r="Q15">
-        <v>16.50375603104035</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>12.85684454709661</v>
+      </c>
+      <c r="S15">
+        <v>15.07972107851331</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.40291847567529</v>
+        <v>14.93869403836391</v>
       </c>
       <c r="C16">
-        <v>8.137396194052346</v>
+        <v>8.409064100558066</v>
       </c>
       <c r="D16">
-        <v>5.081429400792207</v>
+        <v>5.364941576280899</v>
       </c>
       <c r="E16">
-        <v>6.463412160492934</v>
+        <v>6.626507736480668</v>
       </c>
       <c r="F16">
-        <v>22.03104845283964</v>
+        <v>20.6557141560382</v>
       </c>
       <c r="G16">
-        <v>2.111650109846247</v>
+        <v>6.522440943984675</v>
       </c>
       <c r="H16">
-        <v>6.847973392983238</v>
+        <v>6.756306629073118</v>
       </c>
       <c r="I16">
-        <v>3.344157115753087</v>
+        <v>3.088432851354538</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>15.8103925542486</v>
+        <v>14.75438657583122</v>
       </c>
       <c r="L16">
-        <v>5.731408163945305</v>
+        <v>11.6502909394655</v>
       </c>
       <c r="M16">
-        <v>12.68789333031397</v>
+        <v>10.14028847846197</v>
       </c>
       <c r="N16">
-        <v>5.66639432680949</v>
+        <v>5.765346618609827</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>12.69301207849069</v>
       </c>
       <c r="P16">
-        <v>13.13302933425</v>
+        <v>5.84732694361848</v>
       </c>
       <c r="Q16">
-        <v>16.54969904839345</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>12.89558812016968</v>
+      </c>
+      <c r="S16">
+        <v>15.37706557394916</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.2289136225352</v>
+        <v>14.79874680165166</v>
       </c>
       <c r="C17">
-        <v>7.961060120731058</v>
+        <v>8.297811260514932</v>
       </c>
       <c r="D17">
-        <v>5.13900121517189</v>
+        <v>5.384084650784958</v>
       </c>
       <c r="E17">
-        <v>6.566479637697051</v>
+        <v>6.726329988490118</v>
       </c>
       <c r="F17">
-        <v>22.31460980948208</v>
+        <v>21.0680466796172</v>
       </c>
       <c r="G17">
-        <v>2.112817401552057</v>
+        <v>5.905959297377795</v>
       </c>
       <c r="H17">
-        <v>6.1605611814428</v>
+        <v>6.050808123473511</v>
       </c>
       <c r="I17">
-        <v>3.393361625639898</v>
+        <v>3.125569230323756</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>16.00107946860683</v>
+        <v>14.99039779216577</v>
       </c>
       <c r="L17">
-        <v>5.706032638047887</v>
+        <v>11.84399119939014</v>
       </c>
       <c r="M17">
-        <v>12.48788302612104</v>
+        <v>10.28951174460664</v>
       </c>
       <c r="N17">
-        <v>5.82704942357564</v>
+        <v>5.738439617806135</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>12.54998200785277</v>
       </c>
       <c r="P17">
-        <v>13.17788156582297</v>
+        <v>6.017673793127026</v>
       </c>
       <c r="Q17">
-        <v>16.74551622598266</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>12.91378918051971</v>
+      </c>
+      <c r="S17">
+        <v>15.6662550747318</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.30197304583524</v>
+        <v>14.86862647803883</v>
       </c>
       <c r="C18">
-        <v>7.767157199390986</v>
+        <v>8.144088649162699</v>
       </c>
       <c r="D18">
-        <v>5.321041845938023</v>
+        <v>5.550029675019701</v>
       </c>
       <c r="E18">
-        <v>6.831577032429262</v>
+        <v>6.976625599534292</v>
       </c>
       <c r="F18">
-        <v>22.91243508746739</v>
+        <v>21.69737737800032</v>
       </c>
       <c r="G18">
-        <v>2.113180933726388</v>
+        <v>5.746023360401434</v>
       </c>
       <c r="H18">
-        <v>5.003799037084266</v>
+        <v>4.865309404281699</v>
       </c>
       <c r="I18">
-        <v>3.399036302523571</v>
+        <v>3.125430369815897</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>16.31352877546445</v>
+        <v>15.29697937987978</v>
       </c>
       <c r="L18">
-        <v>5.700791170919741</v>
+        <v>12.08598959377299</v>
       </c>
       <c r="M18">
-        <v>12.43529682094042</v>
+        <v>10.50834209825756</v>
       </c>
       <c r="N18">
-        <v>6.174758269897178</v>
+        <v>5.725150245530523</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>12.51965055793301</v>
       </c>
       <c r="P18">
-        <v>13.19681833892668</v>
+        <v>6.375918119030604</v>
       </c>
       <c r="Q18">
-        <v>17.10200327455595</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>12.91394143855098</v>
+      </c>
+      <c r="S18">
+        <v>16.04455608663177</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.54192243195244</v>
+        <v>15.08330018795922</v>
       </c>
       <c r="C19">
-        <v>7.606458462866418</v>
+        <v>8.012895297154373</v>
       </c>
       <c r="D19">
-        <v>5.591447604280311</v>
+        <v>5.815568411088715</v>
       </c>
       <c r="E19">
-        <v>7.273911033682849</v>
+        <v>7.394726810423892</v>
       </c>
       <c r="F19">
-        <v>23.68882141322304</v>
+        <v>22.4515927480677</v>
       </c>
       <c r="G19">
-        <v>2.112851116676466</v>
+        <v>5.661108845185152</v>
       </c>
       <c r="H19">
-        <v>3.695541197685712</v>
+        <v>3.511038583616533</v>
       </c>
       <c r="I19">
-        <v>3.384870191528421</v>
+        <v>3.114637110893749</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>16.68610496624702</v>
+        <v>15.63473949269722</v>
       </c>
       <c r="L19">
-        <v>5.752448227035831</v>
+        <v>12.34550017074126</v>
       </c>
       <c r="M19">
-        <v>12.50429949216441</v>
+        <v>10.76418050148355</v>
       </c>
       <c r="N19">
-        <v>6.673320850220535</v>
+        <v>5.76320261939842</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>12.59100896940171</v>
       </c>
       <c r="P19">
-        <v>13.20164419598214</v>
+        <v>6.885738317508938</v>
       </c>
       <c r="Q19">
-        <v>17.54117663264211</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>12.90447293286871</v>
+      </c>
+      <c r="S19">
+        <v>16.46679307327857</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.26789905027443</v>
+        <v>15.72851720376746</v>
       </c>
       <c r="C20">
-        <v>7.500133957815656</v>
+        <v>7.911414668282905</v>
       </c>
       <c r="D20">
-        <v>6.083271203311594</v>
+        <v>6.333224281324404</v>
       </c>
       <c r="E20">
-        <v>8.145746018765935</v>
+        <v>8.229464615440131</v>
       </c>
       <c r="F20">
-        <v>24.98816632625929</v>
+        <v>23.57927821907903</v>
       </c>
       <c r="G20">
-        <v>2.11056947878475</v>
+        <v>5.686959253156004</v>
       </c>
       <c r="H20">
-        <v>2.47308981533431</v>
+        <v>2.232806442828299</v>
       </c>
       <c r="I20">
-        <v>3.284347349232448</v>
+        <v>3.035089573987422</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>17.2536657583826</v>
+        <v>16.07818890978488</v>
       </c>
       <c r="L20">
-        <v>5.948055201031872</v>
+        <v>12.64528003005187</v>
       </c>
       <c r="M20">
-        <v>12.90954663390848</v>
+        <v>11.15910153851777</v>
       </c>
       <c r="N20">
-        <v>7.537174994038057</v>
+        <v>5.929954182019563</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>12.94855769082244</v>
       </c>
       <c r="P20">
-        <v>13.15853541614318</v>
+        <v>7.762845035512485</v>
       </c>
       <c r="Q20">
-        <v>18.23666553237549</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>12.84908130069704</v>
+      </c>
+      <c r="S20">
+        <v>17.03478840828407</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.22712211910689</v>
+        <v>16.47041781368205</v>
       </c>
       <c r="C21">
-        <v>7.784323032343369</v>
+        <v>7.955420990727488</v>
       </c>
       <c r="D21">
-        <v>6.364142760071847</v>
+        <v>6.823534624188977</v>
       </c>
       <c r="E21">
-        <v>8.414482357125074</v>
+        <v>8.54907710698993</v>
       </c>
       <c r="F21">
-        <v>25.48355663823631</v>
+        <v>23.26032185466125</v>
       </c>
       <c r="G21">
-        <v>2.106319729488665</v>
+        <v>10.74553993223678</v>
       </c>
       <c r="H21">
-        <v>2.224640263698282</v>
+        <v>2.034481019164021</v>
       </c>
       <c r="I21">
-        <v>3.106861189141877</v>
+        <v>2.909871474199212</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>17.31288670552293</v>
+        <v>15.71554426431953</v>
       </c>
       <c r="L21">
-        <v>6.018407368332981</v>
+        <v>12.26813620350714</v>
       </c>
       <c r="M21">
-        <v>13.66485337714705</v>
+        <v>11.04302199508393</v>
       </c>
       <c r="N21">
-        <v>7.839414397674732</v>
+        <v>5.976266158943995</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>13.4395419915982</v>
       </c>
       <c r="P21">
-        <v>12.9853431687992</v>
+        <v>8.040892866310132</v>
       </c>
       <c r="Q21">
-        <v>18.4117927958128</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>12.70467314886528</v>
+      </c>
+      <c r="S21">
+        <v>16.58714959108088</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.82095083882043</v>
+        <v>16.91902629019941</v>
       </c>
       <c r="C22">
-        <v>7.959903823206436</v>
+        <v>7.969243551885927</v>
       </c>
       <c r="D22">
-        <v>6.521363939866919</v>
+        <v>7.129500568888907</v>
       </c>
       <c r="E22">
-        <v>8.54780457360248</v>
+        <v>8.726466790662256</v>
       </c>
       <c r="F22">
-        <v>25.77670194049147</v>
+        <v>22.9784569422556</v>
       </c>
       <c r="G22">
-        <v>2.103632190903008</v>
+        <v>15.36264218055133</v>
       </c>
       <c r="H22">
-        <v>2.077418250929906</v>
+        <v>1.918421609195105</v>
       </c>
       <c r="I22">
-        <v>2.985034917956643</v>
+        <v>2.817848916204292</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>17.34504756040173</v>
+        <v>15.45043549538915</v>
       </c>
       <c r="L22">
-        <v>6.053762050356664</v>
+        <v>12.01558358419372</v>
       </c>
       <c r="M22">
-        <v>14.13042925775982</v>
+        <v>10.94278345831991</v>
       </c>
       <c r="N22">
-        <v>7.990649175900089</v>
+        <v>5.997786526299429</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>13.72768777648073</v>
       </c>
       <c r="P22">
-        <v>12.87301985304296</v>
+        <v>8.174308469106469</v>
       </c>
       <c r="Q22">
-        <v>18.51589154812439</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>12.62147407131371</v>
+      </c>
+      <c r="S22">
+        <v>16.24935080618334</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.52003016754391</v>
+        <v>16.71498036814608</v>
       </c>
       <c r="C23">
-        <v>7.852158276911335</v>
+        <v>7.976450705017478</v>
       </c>
       <c r="D23">
-        <v>6.435771333216501</v>
+        <v>6.940053917421407</v>
       </c>
       <c r="E23">
-        <v>8.480002114429311</v>
+        <v>8.624676825304148</v>
       </c>
       <c r="F23">
-        <v>25.64118386622177</v>
+        <v>23.23606822414332</v>
       </c>
       <c r="G23">
-        <v>2.105043287616895</v>
+        <v>12.10039329862965</v>
       </c>
       <c r="H23">
-        <v>2.154755105495564</v>
+        <v>1.977334337794044</v>
       </c>
       <c r="I23">
-        <v>3.038687590195732</v>
+        <v>2.851467091908558</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>17.34402902962723</v>
+        <v>15.64959443949199</v>
       </c>
       <c r="L23">
-        <v>6.036597050162806</v>
+        <v>12.18812450001155</v>
       </c>
       <c r="M23">
-        <v>13.88507089733248</v>
+        <v>11.04509952066067</v>
       </c>
       <c r="N23">
-        <v>7.906223689745132</v>
+        <v>5.98873834152179</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>13.602909487016</v>
       </c>
       <c r="P23">
-        <v>12.93359152107389</v>
+        <v>8.102881934180671</v>
       </c>
       <c r="Q23">
-        <v>18.47533947591772</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>12.66283539050143</v>
+      </c>
+      <c r="S23">
+        <v>16.51114784142083</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.3064749467457</v>
+        <v>15.76607960403841</v>
       </c>
       <c r="C24">
-        <v>7.45799259430209</v>
+        <v>7.870590289670382</v>
       </c>
       <c r="D24">
-        <v>6.10615725711156</v>
+        <v>6.354359406973869</v>
       </c>
       <c r="E24">
-        <v>8.212759529869318</v>
+        <v>8.293482413819669</v>
       </c>
       <c r="F24">
-        <v>25.10321133501994</v>
+        <v>23.69687524726856</v>
       </c>
       <c r="G24">
-        <v>2.11052836566443</v>
+        <v>5.655868357011644</v>
       </c>
       <c r="H24">
-        <v>2.455948095471248</v>
+        <v>2.21509654273033</v>
       </c>
       <c r="I24">
-        <v>3.266257187676684</v>
+        <v>3.013146216426779</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>17.3221168520036</v>
+        <v>16.14428570668072</v>
       </c>
       <c r="L24">
-        <v>5.967441899686194</v>
+        <v>12.69651728438686</v>
       </c>
       <c r="M24">
-        <v>12.9119291446667</v>
+        <v>11.20839108941552</v>
       </c>
       <c r="N24">
-        <v>7.586530307833872</v>
+        <v>5.947547861016017</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>12.95279880132326</v>
       </c>
       <c r="P24">
-        <v>13.16416080548959</v>
+        <v>7.813490775087792</v>
       </c>
       <c r="Q24">
-        <v>18.30852898781339</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>12.85156080614754</v>
+      </c>
+      <c r="S24">
+        <v>17.1084326862681</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.88672786832892</v>
+        <v>14.41446024136784</v>
       </c>
       <c r="C25">
-        <v>7.013041030922072</v>
+        <v>7.378147395586679</v>
       </c>
       <c r="D25">
-        <v>5.733125777033006</v>
+        <v>5.97368951399448</v>
       </c>
       <c r="E25">
-        <v>7.913601350149986</v>
+        <v>8.033101147970683</v>
       </c>
       <c r="F25">
-        <v>24.54552636385614</v>
+        <v>23.24924874680135</v>
       </c>
       <c r="G25">
-        <v>2.116693660084835</v>
+        <v>6.20435866873043</v>
       </c>
       <c r="H25">
-        <v>2.795901401956479</v>
+        <v>2.513082766818105</v>
       </c>
       <c r="I25">
-        <v>3.525624856147838</v>
+        <v>3.226301003007347</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>17.31695841481622</v>
+        <v>16.20720480085652</v>
       </c>
       <c r="L25">
-        <v>5.889605727122863</v>
+        <v>12.92296313882874</v>
       </c>
       <c r="M25">
-        <v>11.77224663919991</v>
+        <v>11.03368961554703</v>
       </c>
       <c r="N25">
-        <v>7.229235789040526</v>
+        <v>5.887623696021024</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>11.86890343474782</v>
       </c>
       <c r="P25">
-        <v>13.41809752096101</v>
+        <v>7.450002137896812</v>
       </c>
       <c r="Q25">
-        <v>18.15375468657124</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>13.06879268304364</v>
+      </c>
+      <c r="S25">
+        <v>17.02008907408268</v>
       </c>
     </row>
   </sheetData>
